--- a/08반.xlsx
+++ b/08반.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,20 +480,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20810</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>자습실</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CIP2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CIP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>20812</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>자습실</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>자습</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>자습</t>
         </is>
